--- a/sort/MergeVsInsertvsStoogesort.xlsx
+++ b/sort/MergeVsInsertvsStoogesort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="1280" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3120" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HW1" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -465,8 +464,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1038701648"/>
-        <c:axId val="1039602096"/>
+        <c:axId val="193631376"/>
+        <c:axId val="159021744"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -684,11 +683,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1108604528"/>
-        <c:axId val="1108601136"/>
+        <c:axId val="159114128"/>
+        <c:axId val="159110736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1038701648"/>
+        <c:axId val="193631376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,7 +719,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -787,7 +785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1039602096"/>
+        <c:crossAx val="159021744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -795,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1039602096"/>
+        <c:axId val="159021744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -847,7 +845,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -907,12 +904,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038701648"/>
+        <c:crossAx val="193631376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1108601136"/>
+        <c:axId val="159110736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -946,7 +943,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1006,12 +1002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1108604528"/>
+        <c:crossAx val="159114128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1108604528"/>
+        <c:axId val="159114128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1108601136"/>
+        <c:crossAx val="159110736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1046,7 +1042,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1158,7 +1153,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1406,11 +1400,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1109446400"/>
-        <c:axId val="1109448720"/>
+        <c:axId val="159134784"/>
+        <c:axId val="159137264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1109446400"/>
+        <c:axId val="159134784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1109448720"/>
+        <c:crossAx val="159137264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1461,7 +1455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1109448720"/>
+        <c:axId val="159137264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1513,7 +1507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1109446400"/>
+        <c:crossAx val="159134784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1531,7 +1525,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1638,7 +1631,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1887,11 +1879,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1109473488"/>
-        <c:axId val="1109475968"/>
+        <c:axId val="159161680"/>
+        <c:axId val="159164160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1109473488"/>
+        <c:axId val="159161680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1109475968"/>
+        <c:crossAx val="159164160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +1934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1109475968"/>
+        <c:axId val="159164160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1994,7 +1986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1109473488"/>
+        <c:crossAx val="159161680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2012,7 +2004,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2127,7 +2118,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2453,11 +2443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1037825584"/>
-        <c:axId val="1037827904"/>
+        <c:axId val="193673808"/>
+        <c:axId val="193676288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1037825584"/>
+        <c:axId val="193673808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,7 +2490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037827904"/>
+        <c:crossAx val="193676288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2508,7 +2498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1037827904"/>
+        <c:axId val="193676288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2559,7 +2549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037825584"/>
+        <c:crossAx val="193673808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2581,7 +2571,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2696,7 +2685,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2904,8 +2892,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1037873984"/>
-        <c:axId val="1037876032"/>
+        <c:axId val="193711024"/>
+        <c:axId val="193713504"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3081,11 +3069,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1037885968"/>
-        <c:axId val="1037883920"/>
+        <c:axId val="193718464"/>
+        <c:axId val="193715984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1037873984"/>
+        <c:axId val="193711024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,7 +3116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037876032"/>
+        <c:crossAx val="193713504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3136,7 +3124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1037876032"/>
+        <c:axId val="193713504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3189,12 +3177,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037873984"/>
+        <c:crossAx val="193711024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1037883920"/>
+        <c:axId val="193715984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3233,12 +3221,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037885968"/>
+        <c:crossAx val="193718464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1037885968"/>
+        <c:axId val="193718464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3248,7 +3236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1037883920"/>
+        <c:crossAx val="193715984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3273,7 +3261,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3388,7 +3375,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3559,8 +3545,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1037927632"/>
-        <c:axId val="1037929952"/>
+        <c:axId val="193755152"/>
+        <c:axId val="193757632"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3736,11 +3722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1037943824"/>
-        <c:axId val="1037941504"/>
+        <c:axId val="193762592"/>
+        <c:axId val="193760112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1037927632"/>
+        <c:axId val="193755152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,7 +3769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037929952"/>
+        <c:crossAx val="193757632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3791,7 +3777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1037929952"/>
+        <c:axId val="193757632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3845,12 +3831,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037927632"/>
+        <c:crossAx val="193755152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1037941504"/>
+        <c:axId val="193760112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3860,12 +3846,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1037943824"/>
+        <c:crossAx val="193762592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1037943824"/>
+        <c:axId val="193762592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3875,7 +3861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1037941504"/>
+        <c:crossAx val="193760112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3900,7 +3886,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4015,7 +4000,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4223,8 +4207,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1037976480"/>
-        <c:axId val="1037978960"/>
+        <c:axId val="193794912"/>
+        <c:axId val="193797392"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4400,11 +4384,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1037983920"/>
-        <c:axId val="1037981440"/>
+        <c:axId val="193802352"/>
+        <c:axId val="193799872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1037976480"/>
+        <c:axId val="193794912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4447,7 +4431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037978960"/>
+        <c:crossAx val="193797392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4455,7 +4439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1037978960"/>
+        <c:axId val="193797392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4506,12 +4490,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037976480"/>
+        <c:crossAx val="193794912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1037981440"/>
+        <c:axId val="193799872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,12 +4531,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037983920"/>
+        <c:crossAx val="193802352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1037983920"/>
+        <c:axId val="193802352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4562,7 +4546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1037981440"/>
+        <c:crossAx val="193799872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4587,7 +4571,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9595,94 +9578,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>200</v>
       </c>
+      <c r="B4">
+        <v>0.33</v>
+      </c>
+      <c r="C4">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>400</v>
       </c>
+      <c r="B5">
+        <v>2.78</v>
+      </c>
+      <c r="C5">
+        <v>2.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>600</v>
       </c>
+      <c r="B6">
+        <v>8.69</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>800</v>
       </c>
+      <c r="B7">
+        <v>25.54</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1000</v>
       </c>
+      <c r="B8">
+        <v>25.17</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1200</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>76.099999999999994</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>75.849999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1400</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>74.41</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1600</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>221.93</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>231.17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1800</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>228.83</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>227.57</v>
       </c>
+      <c r="D12">
+        <v>222.16499999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2000</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>235.48</v>
+      </c>
+      <c r="C13">
+        <v>226.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3000</v>
+      </c>
+      <c r="B14">
+        <v>680.56</v>
+      </c>
+      <c r="C14">
+        <v>678.03</v>
       </c>
     </row>
   </sheetData>

--- a/sort/MergeVsInsertvsStoogesort.xlsx
+++ b/sort/MergeVsInsertvsStoogesort.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-38060" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HW1" sheetId="1" r:id="rId1"/>
     <sheet name="EC1" sheetId="2" r:id="rId2"/>
     <sheet name="Stoogesort" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Insertion Sort</t>
   </si>
@@ -62,12 +63,44 @@
   <si>
     <t>Extra Credit</t>
   </si>
+  <si>
+    <t>Stoogesort</t>
+  </si>
+  <si>
+    <t>Rerun on a different computer</t>
+  </si>
+  <si>
+    <t>688.484761 seconds</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t># of values</t>
+  </si>
+  <si>
+    <t>Avg. log val.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +149,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,12 +171,129 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -141,7 +304,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -152,6 +315,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -215,6 +399,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -464,8 +649,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193631376"/>
-        <c:axId val="159021744"/>
+        <c:axId val="-1453366016"/>
+        <c:axId val="-1383988608"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -683,11 +868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159114128"/>
-        <c:axId val="159110736"/>
+        <c:axId val="-1383982096"/>
+        <c:axId val="-1383985488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193631376"/>
+        <c:axId val="-1453366016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,6 +904,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -785,7 +971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159021744"/>
+        <c:crossAx val="-1383988608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159021744"/>
+        <c:axId val="-1383988608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -845,6 +1031,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -904,12 +1091,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193631376"/>
+        <c:crossAx val="-1453366016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159110736"/>
+        <c:axId val="-1383985488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -943,6 +1130,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1002,12 +1190,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159114128"/>
+        <c:crossAx val="-1383982096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="159114128"/>
+        <c:axId val="-1383982096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159110736"/>
+        <c:crossAx val="-1383985488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1042,6 +1230,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1153,6 +1342,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1400,11 +1590,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="159134784"/>
-        <c:axId val="159137264"/>
+        <c:axId val="-1452099632"/>
+        <c:axId val="-1452194752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159134784"/>
+        <c:axId val="-1452099632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159137264"/>
+        <c:crossAx val="-1452194752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,7 +1645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159137264"/>
+        <c:axId val="-1452194752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1507,7 +1697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159134784"/>
+        <c:crossAx val="-1452099632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1525,6 +1715,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1631,6 +1822,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1879,11 +2071,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="159161680"/>
-        <c:axId val="159164160"/>
+        <c:axId val="-1382964688"/>
+        <c:axId val="-1382962208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159161680"/>
+        <c:axId val="-1382964688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +2118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159164160"/>
+        <c:crossAx val="-1382962208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1934,7 +2126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159164160"/>
+        <c:axId val="-1382962208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1986,7 +2178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159161680"/>
+        <c:crossAx val="-1382964688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2004,6 +2196,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2118,6 +2311,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2443,11 +2637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="193673808"/>
-        <c:axId val="193676288"/>
+        <c:axId val="-1382921056"/>
+        <c:axId val="-1382918576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193673808"/>
+        <c:axId val="-1382921056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193676288"/>
+        <c:crossAx val="-1382918576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2498,7 +2692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193676288"/>
+        <c:axId val="-1382918576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2549,7 +2743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193673808"/>
+        <c:crossAx val="-1382921056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2571,6 +2765,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2685,6 +2880,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2892,8 +3088,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193711024"/>
-        <c:axId val="193713504"/>
+        <c:axId val="-1382015184"/>
+        <c:axId val="-1382012704"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3069,11 +3265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193718464"/>
-        <c:axId val="193715984"/>
+        <c:axId val="-1382007744"/>
+        <c:axId val="-1382010224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193711024"/>
+        <c:axId val="-1382015184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,7 +3312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193713504"/>
+        <c:crossAx val="-1382012704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3124,7 +3320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193713504"/>
+        <c:axId val="-1382012704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3177,12 +3373,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193711024"/>
+        <c:crossAx val="-1382015184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193715984"/>
+        <c:axId val="-1382010224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3221,12 +3417,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193718464"/>
+        <c:crossAx val="-1382007744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="193718464"/>
+        <c:axId val="-1382007744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,7 +3432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193715984"/>
+        <c:crossAx val="-1382010224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3261,6 +3457,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3375,6 +3572,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3545,8 +3743,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193755152"/>
-        <c:axId val="193757632"/>
+        <c:axId val="-1381971056"/>
+        <c:axId val="-1381968576"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3722,11 +3920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193762592"/>
-        <c:axId val="193760112"/>
+        <c:axId val="-1381963616"/>
+        <c:axId val="-1381966096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193755152"/>
+        <c:axId val="-1381971056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3769,7 +3967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193757632"/>
+        <c:crossAx val="-1381968576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3777,7 +3975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193757632"/>
+        <c:axId val="-1381968576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3831,12 +4029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193755152"/>
+        <c:crossAx val="-1381971056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193760112"/>
+        <c:axId val="-1381966096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3846,12 +4044,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193762592"/>
+        <c:crossAx val="-1381963616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="193762592"/>
+        <c:axId val="-1381963616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +4059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193760112"/>
+        <c:crossAx val="-1381966096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3886,6 +4084,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4000,6 +4199,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4207,8 +4407,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193794912"/>
-        <c:axId val="193797392"/>
+        <c:axId val="-1382892448"/>
+        <c:axId val="-1382889968"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4384,11 +4584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193802352"/>
-        <c:axId val="193799872"/>
+        <c:axId val="-1382885008"/>
+        <c:axId val="-1382887488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193794912"/>
+        <c:axId val="-1382892448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,7 +4631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193797392"/>
+        <c:crossAx val="-1382889968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4439,7 +4639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193797392"/>
+        <c:axId val="-1382889968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4490,12 +4690,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193794912"/>
+        <c:crossAx val="-1382892448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193799872"/>
+        <c:axId val="-1382887488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,12 +4731,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193802352"/>
+        <c:crossAx val="-1382885008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="193802352"/>
+        <c:axId val="-1382885008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +4746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193799872"/>
+        <c:crossAx val="-1382887488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4571,6 +4771,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4633,6 +4834,1449 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stooge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Insert vs Merge sort log values  </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mergesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00587970253718285"/>
+                  <c:y val="0.0698410615339749"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$24:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-3.37805296075416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.065714480729604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.736376035586306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.533284743791392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.424011980080846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.31310070613044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.229347989907422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.157639116107995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.074049402709806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.049242873910593</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.998525693509833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.955646138024645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.872516789535915</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.911246389428092</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.857786670169955</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.823783769966867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0165463692038495"/>
+                  <c:y val="-0.0470508894721493"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$45:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-2.99611424558138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.417401392603594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.843539811353114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.470368501823467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.220280433042972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.034093164547473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.881203119491999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.747999535232326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.633372829535402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.534848210242578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.438777639341761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.371986962837233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.29176110179805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.221643907616995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.157135583457771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.0914207672688779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoogesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="2.0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.294077427821522"/>
+                  <c:y val="-0.0787557603686636"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.971984633764895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.500007438474177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.450807569755237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93318842451962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.414574906311128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.414789821490328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.886934277770848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.89076790749611</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.367030829083616</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.369435597280857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.370630672902224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.36600071937943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.838562075393897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.838479785071281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.832273828913845</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.838609651718362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1383682192"/>
+        <c:axId val="-1383736288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1383682192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1383736288"/>
+        <c:crossesAt val="-4.5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1383736288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1383682192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stoogesort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Run Time vs # of Random Elements</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.124029527559055"/>
+                  <c:y val="0.133842592592593"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.106663386027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.316222349802667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.823628584543333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.57409763336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.97615734736667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.9890151024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.0786816279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.76208694776666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232.8256526786666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>234.1184268793333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>234.7635525863334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232.2740643816667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>689.5441453453333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>689.413502574</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>679.6320153076667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>689.6196880343333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1362603936"/>
+        <c:axId val="-1366803552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1362603936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1366803552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1366803552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1362603936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4917,6 +6561,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8510,6 +10234,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8757,6 +11513,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9578,149 +12399,1197 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>100</v>
       </c>
-      <c r="B3">
-        <v>0.11</v>
+      <c r="B4" s="16">
+        <f>AVERAGE(C4:E4)</f>
+        <v>0.106663386027</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.111518144608</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.105377912521</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.103094100952</v>
+      </c>
+      <c r="F4" s="20">
+        <f>LOG(B4)</f>
+        <v>-0.9719846337648953</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>200</v>
       </c>
-      <c r="B4">
-        <v>0.33</v>
-      </c>
-      <c r="C4">
-        <v>0.32</v>
+      <c r="B5" s="16">
+        <f t="shared" ref="B5:B18" si="0">AVERAGE(C5:E5)</f>
+        <v>0.31622234980266667</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.31412291526800001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.31414318084699999</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.320400953293</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" ref="F5:F19" si="1">LOG(B5)</f>
+        <v>-0.50000743847417717</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>400</v>
       </c>
-      <c r="B5">
-        <v>2.78</v>
-      </c>
-      <c r="C5">
-        <v>2.75</v>
+      <c r="B6" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8236285845433335</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2.8452219963099998</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2.83858680725</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.7870769500699999</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="1"/>
+        <v>0.45080756975523739</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>600</v>
       </c>
-      <c r="B6">
-        <v>8.69</v>
+      <c r="B7" s="16">
+        <f t="shared" si="0"/>
+        <v>8.574097633360001</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8.5975329875900002</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8.5814268589000005</v>
+      </c>
+      <c r="E7" s="10">
+        <v>8.5433330535900005</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.93318842451962003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>800</v>
       </c>
-      <c r="B7">
-        <v>25.54</v>
+      <c r="B8" s="16">
+        <f t="shared" si="0"/>
+        <v>25.976157347366666</v>
+      </c>
+      <c r="C8" s="9">
+        <v>26.068927049599999</v>
+      </c>
+      <c r="D8" s="9">
+        <v>26.095813035999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>25.763731956499999</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4145749063111279</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>1000</v>
       </c>
-      <c r="B8">
-        <v>25.17</v>
+      <c r="B9" s="16">
+        <f t="shared" si="0"/>
+        <v>25.9890151024</v>
+      </c>
+      <c r="C9" s="9">
+        <v>25.834413051599999</v>
+      </c>
+      <c r="D9" s="9">
+        <v>26.336028099100002</v>
+      </c>
+      <c r="E9" s="10">
+        <v>25.796604156499999</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4147898214903278</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>1200</v>
       </c>
-      <c r="B9">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="C9">
-        <v>75.849999999999994</v>
+      <c r="B10" s="16">
+        <f t="shared" si="0"/>
+        <v>77.078681627899996</v>
+      </c>
+      <c r="C10" s="9">
+        <v>74.597178936000006</v>
+      </c>
+      <c r="D10" s="9">
+        <v>79.024653911599998</v>
+      </c>
+      <c r="E10" s="10">
+        <v>77.6142120361</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="1"/>
+        <v>1.8869342777708478</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>1400</v>
       </c>
-      <c r="B10">
-        <v>74.41</v>
-      </c>
-      <c r="C10">
-        <v>76</v>
+      <c r="B11" s="16">
+        <f t="shared" si="0"/>
+        <v>77.762086947766662</v>
+      </c>
+      <c r="C11" s="9">
+        <v>76.094383001300002</v>
+      </c>
+      <c r="D11" s="9">
+        <v>79.485470771799996</v>
+      </c>
+      <c r="E11" s="10">
+        <v>77.706407070200001</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="1"/>
+        <v>1.8907679074961097</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>1600</v>
       </c>
-      <c r="B11">
-        <v>221.93</v>
-      </c>
-      <c r="C11">
-        <v>231.17</v>
+      <c r="B12" s="16">
+        <f t="shared" si="0"/>
+        <v>232.82565267866664</v>
+      </c>
+      <c r="C12" s="9">
+        <v>236.589053154</v>
+      </c>
+      <c r="D12" s="9">
+        <v>235.42765188199999</v>
+      </c>
+      <c r="E12" s="10">
+        <v>226.46025299999999</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3670308290836157</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>1800</v>
       </c>
-      <c r="B12">
-        <v>228.83</v>
-      </c>
-      <c r="C12">
-        <v>227.57</v>
-      </c>
-      <c r="D12">
-        <v>222.16499999999999</v>
+      <c r="B13" s="16">
+        <f t="shared" si="0"/>
+        <v>234.11842687933333</v>
+      </c>
+      <c r="C13" s="9">
+        <v>234.58314704899999</v>
+      </c>
+      <c r="D13" s="9">
+        <v>234.617685795</v>
+      </c>
+      <c r="E13" s="10">
+        <v>233.15444779399999</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="1"/>
+        <v>2.369435597280857</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>2000</v>
       </c>
-      <c r="B13">
-        <v>235.48</v>
-      </c>
-      <c r="C13">
-        <v>226.43</v>
+      <c r="B14" s="16">
+        <f t="shared" si="0"/>
+        <v>234.76355258633336</v>
+      </c>
+      <c r="C14" s="9">
+        <v>236.41508102399999</v>
+      </c>
+      <c r="D14" s="9">
+        <v>239.346654892</v>
+      </c>
+      <c r="E14" s="10">
+        <v>228.52892184300001</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="1"/>
+        <v>2.370630672902224</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>2200</v>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="0"/>
+        <v>232.27406438166668</v>
+      </c>
+      <c r="C15" s="9">
+        <v>237.47675895699999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>232.344400167</v>
+      </c>
+      <c r="E15" s="10">
+        <v>227.00103402100001</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3660007193794299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>2400</v>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="0"/>
+        <v>689.54414534533328</v>
+      </c>
+      <c r="C16" s="9">
+        <v>694.46657490699999</v>
+      </c>
+      <c r="D16" s="9">
+        <v>700.88907313300001</v>
+      </c>
+      <c r="E16" s="10">
+        <v>673.27678799600005</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="1"/>
+        <v>2.8385620753938969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>2600</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="0"/>
+        <v>689.41350257399995</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9">
+        <v>692.895414114</v>
+      </c>
+      <c r="E17" s="10">
+        <v>685.93159103400001</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="1"/>
+        <v>2.8384797850712808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>2800</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="0"/>
+        <v>679.63201530766673</v>
+      </c>
+      <c r="C18" s="9">
+        <v>669.65447592700002</v>
+      </c>
+      <c r="D18" s="9">
+        <v>687.74022603000003</v>
+      </c>
+      <c r="E18" s="13">
+        <v>681.50134396600004</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="1"/>
+        <v>2.8322738289138454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>3000</v>
       </c>
-      <c r="B14">
-        <v>680.56</v>
-      </c>
-      <c r="C14">
-        <v>678.03</v>
+      <c r="B19" s="18">
+        <f>AVERAGE(C19:E19)</f>
+        <v>689.61968803433331</v>
+      </c>
+      <c r="C19" s="11">
+        <v>697.94966793100002</v>
+      </c>
+      <c r="D19" s="11">
+        <v>675.11387801199999</v>
+      </c>
+      <c r="E19" s="12">
+        <v>695.79551816000003</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="1"/>
+        <v>2.8386096517183619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3200</v>
+      </c>
+      <c r="B20" s="19">
+        <f>AVERAGE(C20:E20)</f>
+        <v>672.71593093849992</v>
+      </c>
+      <c r="C20" s="6">
+        <v>672.10332894299995</v>
+      </c>
+      <c r="D20" s="6">
+        <v>673.32853293400001</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>100</v>
+      </c>
+      <c r="B24" s="14">
+        <f>AVERAGE(C24:E24)</f>
+        <v>4.187424977623333E-4</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4.2200088500999998E-4</v>
+      </c>
+      <c r="D24" s="9">
+        <v>4.1508674621600002E-4</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4.1913986206100002E-4</v>
+      </c>
+      <c r="F24" s="20">
+        <f>LOG(B24)</f>
+        <v>-3.3780529607541605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>200</v>
+      </c>
+      <c r="B25" s="14">
+        <f t="shared" ref="B25:B39" si="2">AVERAGE(C25:E25)</f>
+        <v>8.5957845052100001E-4</v>
+      </c>
+      <c r="C25" s="9">
+        <v>8.4590911865199995E-4</v>
+      </c>
+      <c r="D25" s="9">
+        <v>8.6998939514200001E-4</v>
+      </c>
+      <c r="E25" s="10">
+        <v>8.6283683776899997E-4</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" ref="F25:F39" si="3">LOG(B25)</f>
+        <v>-3.065714480729604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>400</v>
+      </c>
+      <c r="B26" s="14">
+        <f t="shared" si="2"/>
+        <v>1.8349488576266664E-3</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.82294845581E-3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1.83391571045E-3</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1.84798240662E-3</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.7363760355863058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>600</v>
+      </c>
+      <c r="B27" s="14">
+        <f t="shared" si="2"/>
+        <v>2.9289722442633337E-3</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2.8569698333700002E-3</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2.92301177979E-3</v>
+      </c>
+      <c r="E27" s="10">
+        <v>3.00693511963E-3</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.5332847437913921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>800</v>
+      </c>
+      <c r="B28" s="14">
+        <f t="shared" si="2"/>
+        <v>3.7669340769433336E-3</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3.7519931793200002E-3</v>
+      </c>
+      <c r="D28" s="9">
+        <v>3.8709640502900002E-3</v>
+      </c>
+      <c r="E28" s="10">
+        <v>3.6778450012200001E-3</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.4240119800808464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="2"/>
+        <v>4.8629442850766673E-3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4.9579143524200002E-3</v>
+      </c>
+      <c r="D29" s="9">
+        <v>4.84299659729E-3</v>
+      </c>
+      <c r="E29" s="10">
+        <v>4.7879219055199998E-3</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.3131007061304394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>1200</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="2"/>
+        <v>5.8972835540766662E-3</v>
+      </c>
+      <c r="C30" s="9">
+        <v>5.8429241180399999E-3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>5.7568550109899997E-3</v>
+      </c>
+      <c r="E30" s="10">
+        <v>6.0920715331999999E-3</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.229347989907422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>1400</v>
+      </c>
+      <c r="B31" s="14">
+        <f t="shared" si="2"/>
+        <v>6.9560209910066659E-3</v>
+      </c>
+      <c r="C31" s="9">
+        <v>6.5970420837400002E-3</v>
+      </c>
+      <c r="D31" s="9">
+        <v>7.2300434112500004E-3</v>
+      </c>
+      <c r="E31" s="10">
+        <v>7.0409774780299996E-3</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.1576391161079953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>1600</v>
+      </c>
+      <c r="B32" s="14">
+        <f t="shared" si="2"/>
+        <v>8.4323883056633339E-3</v>
+      </c>
+      <c r="C32" s="9">
+        <v>8.3148479461700002E-3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>8.4891319274900002E-3</v>
+      </c>
+      <c r="E32" s="10">
+        <v>8.4931850433299996E-3</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.0740494027098064</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>1800</v>
+      </c>
+      <c r="B33" s="14">
+        <f t="shared" si="2"/>
+        <v>8.9280605316199996E-3</v>
+      </c>
+      <c r="C33" s="9">
+        <v>8.8801383972199992E-3</v>
+      </c>
+      <c r="D33" s="9">
+        <v>8.7661743164100005E-3</v>
+      </c>
+      <c r="E33" s="10">
+        <v>9.1378688812300008E-3</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.0492428739105928</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="14">
+        <f t="shared" si="2"/>
+        <v>1.0034004847213333E-2</v>
+      </c>
+      <c r="C34" s="9">
+        <v>9.7959041595499993E-3</v>
+      </c>
+      <c r="D34" s="9">
+        <v>9.6631050109900005E-3</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1.06430053711E-2</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.9985256935098326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>2200</v>
+      </c>
+      <c r="B35" s="14">
+        <f t="shared" si="2"/>
+        <v>1.1075258255E-2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1.07779502869E-2</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1.1425018310499999E-2</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1.1022806167599999E-2</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.955646138024645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>2400</v>
+      </c>
+      <c r="B36" s="14">
+        <f t="shared" si="2"/>
+        <v>1.3411680857366666E-2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1.3209104538E-2</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1.33728981018E-2</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1.36530399323E-2</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.8725167895359152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>2600</v>
+      </c>
+      <c r="B37" s="14">
+        <f t="shared" si="2"/>
+        <v>1.2267430623366667E-2</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1.21941566467E-2</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1.2423992157E-2</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1.21841430664E-2</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.9112463894280924</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>2800</v>
+      </c>
+      <c r="B38" s="14">
+        <f t="shared" si="2"/>
+        <v>1.3874371846533333E-2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1.3890027999900001E-2</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1.3780117034899999E-2</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1.3952970504800001E-2</v>
+      </c>
+      <c r="F38" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.8577866701699546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>3000</v>
+      </c>
+      <c r="B39" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5004316965733332E-2</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1.50039196014E-2</v>
+      </c>
+      <c r="D39" s="11">
+        <v>1.45530700684E-2</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1.5455961227400001E-2</v>
+      </c>
+      <c r="F39" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.8237837699668671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="20"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>100</v>
+      </c>
+      <c r="B45" s="14">
+        <f>AVERAGE(C45:E45)</f>
+        <v>1.0089874267556666E-3</v>
+      </c>
+      <c r="C45" s="9">
+        <v>8.4996223449699995E-4</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1.0900497436499999E-3</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1.08695030212E-3</v>
+      </c>
+      <c r="F45" s="20">
+        <f>LOG(B45)</f>
+        <v>-2.9961142455813805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>200</v>
+      </c>
+      <c r="B46" s="14">
+        <f t="shared" ref="B46:B59" si="4">AVERAGE(C46:E46)</f>
+        <v>3.8247108459466667E-3</v>
+      </c>
+      <c r="C46" s="9">
+        <v>3.94606590271E-3</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3.8149356841999998E-3</v>
+      </c>
+      <c r="E46" s="10">
+        <v>3.7131309509299999E-3</v>
+      </c>
+      <c r="F46" s="20">
+        <f t="shared" ref="F46:F60" si="5">LOG(B46)</f>
+        <v>-2.4174013926035944</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>400</v>
+      </c>
+      <c r="B47" s="14">
+        <f t="shared" si="4"/>
+        <v>1.43370628357E-2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1.4300107955899999E-2</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1.44650936127E-2</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1.42459869385E-2</v>
+      </c>
+      <c r="F47" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.8435398113531145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>600</v>
+      </c>
+      <c r="B48" s="14">
+        <f t="shared" si="4"/>
+        <v>3.3855676651000005E-2</v>
+      </c>
+      <c r="C48" s="9">
+        <v>3.4126996994E-2</v>
+      </c>
+      <c r="D48" s="9">
+        <v>3.3055067062400002E-2</v>
+      </c>
+      <c r="E48" s="10">
+        <v>3.4384965896599999E-2</v>
+      </c>
+      <c r="F48" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.4703685018234669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>800</v>
+      </c>
+      <c r="B49" s="14">
+        <f t="shared" si="4"/>
+        <v>6.0217062632266671E-2</v>
+      </c>
+      <c r="C49" s="9">
+        <v>5.8936119079600002E-2</v>
+      </c>
+      <c r="D49" s="9">
+        <v>6.0284852981600003E-2</v>
+      </c>
+      <c r="E49" s="10">
+        <v>6.1430215835600002E-2</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.220280433042972</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="14">
+        <f t="shared" si="4"/>
+        <v>9.2449982961000002E-2</v>
+      </c>
+      <c r="C50" s="9">
+        <v>9.3263864517200007E-2</v>
+      </c>
+      <c r="D50" s="9">
+        <v>9.1912031173700004E-2</v>
+      </c>
+      <c r="E50" s="10">
+        <v>9.2174053192099994E-2</v>
+      </c>
+      <c r="F50" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.0340931645474729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>1200</v>
+      </c>
+      <c r="B51" s="14">
+        <f t="shared" si="4"/>
+        <v>0.13146098454766666</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.13232398033100001</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.130966901779</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.13109207153300001</v>
+      </c>
+      <c r="F51" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.88120311949199936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>1400</v>
+      </c>
+      <c r="B52" s="14">
+        <f t="shared" si="4"/>
+        <v>0.17864894866933334</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0.176785945892</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.17903494834899999</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0.180125951767</v>
+      </c>
+      <c r="F52" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.74799953523232587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>1600</v>
+      </c>
+      <c r="B53" s="14">
+        <f t="shared" si="4"/>
+        <v>0.23260935147600001</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0.22645211219799999</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.23658990860000001</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0.23478603363</v>
+      </c>
+      <c r="F53" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.63337282953540242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>1800</v>
+      </c>
+      <c r="B54" s="14">
+        <f t="shared" si="4"/>
+        <v>0.29184468587233331</v>
+      </c>
+      <c r="C54" s="9">
+        <v>0.293682098389</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.28499984741200002</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0.29685211181600002</v>
+      </c>
+      <c r="F54" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.53484821024257778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B55" s="14">
+        <f t="shared" si="4"/>
+        <v>0.36410140991199996</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0.36057114601099999</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.36487007141099997</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0.36686301231399998</v>
+      </c>
+      <c r="F55" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.43877763934176067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>2200</v>
+      </c>
+      <c r="B56" s="14">
+        <f t="shared" si="4"/>
+        <v>0.42463231086733333</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0.43884205818200001</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.41734290123000001</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0.41771197318999997</v>
+      </c>
+      <c r="F56" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.37198696283723348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>2400</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" si="4"/>
+        <v>0.51078589757266668</v>
+      </c>
+      <c r="C57" s="9">
+        <v>0.51519203185999995</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.51227784156800005</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0.50488781929000004</v>
+      </c>
+      <c r="F57" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.29176110179804965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>2600</v>
+      </c>
+      <c r="B58" s="14">
+        <f t="shared" si="4"/>
+        <v>0.60028306643166662</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0.60161805152900005</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.59887313842800005</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0.60035800933799999</v>
+      </c>
+      <c r="F58" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.22164390761699465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>2800</v>
+      </c>
+      <c r="B59" s="14">
+        <f t="shared" si="4"/>
+        <v>0.69640906651799994</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.69763922691299995</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.69701886177100003</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0.69456911086999995</v>
+      </c>
+      <c r="F59" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.15713558345777071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>3000</v>
+      </c>
+      <c r="B60" s="15">
+        <f>AVERAGE(C60:E60)</f>
+        <v>0.8101757367450001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.81570816040000005</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0.81454706192000004</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.80027198791499998</v>
+      </c>
+      <c r="F60" s="20">
+        <f t="shared" si="5"/>
+        <v>-9.1420767268877892E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>